--- a/output/Results_Bm25.xlsx
+++ b/output/Results_Bm25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="595">
   <si>
     <t>Tipo</t>
   </si>
@@ -55,6 +55,9 @@
     <t>Brûlée Cream</t>
   </si>
   <si>
+    <t>Chocolate pizza</t>
+  </si>
+  <si>
     <t>apple pie</t>
   </si>
   <si>
@@ -196,6 +199,21 @@
     <t>400273</t>
   </si>
   <si>
+    <t>31490</t>
+  </si>
+  <si>
+    <t>249050</t>
+  </si>
+  <si>
+    <t>220237</t>
+  </si>
+  <si>
+    <t>468143</t>
+  </si>
+  <si>
+    <t>287573</t>
+  </si>
+  <si>
     <t>146</t>
   </si>
   <si>
@@ -719,6 +737,21 @@
   </si>
   <si>
     <t>guilt free ice cream wannabe</t>
+  </si>
+  <si>
+    <t>a bit different  breakfast pizza</t>
+  </si>
+  <si>
+    <t>death by chocolate  copycat dark chocolate sauce</t>
+  </si>
+  <si>
+    <t>chocolate  cherry pecan biscotti</t>
+  </si>
+  <si>
+    <t>ultimate  dark chocolate oreo truffle</t>
+  </si>
+  <si>
+    <t>10 minute german chocolate pie</t>
   </si>
   <si>
     <t>21  apple pie</t>
@@ -1392,6 +1425,140 @@
 stir in mixed berries until well distributed
 top with sprinkles of fiber one cereal
 enjoy !
+The mean rating for this recipe is: No reviews
+User reviews: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a bit different  breakfast pizza
+Recipe posted on: 2002-06-17
+Tags: 30-minutes-or-less, time-to-make, course, main-ingredient, cuisine, preparation, occasion, north-american, breakfast, main-dish, pork, american, oven, easy, kid-friendly, pizza, dietary, northeastern-united-states, meat, equipment
+Description: this recipe calls for the crust to be prebaked a bit before adding ingredients. feel free to change sausage to ham or bacon. this warms well in the microwave for those late risers.
+This recipe takes 30 minutes to be done.
+For this recipe you will need the ingredients: 
+prepared pizza crust
+sausage patty
+eggs
+milk
+salt and pepper
+cheese
+The 9 steps to make this recipe are: 
+preheat oven to 425 degrees f
+press dough into the bottom and sides of a 12 inch pizza pan
+bake for 5 minutes until set but not browned
+cut sausage into small pieces
+whisk eggs and milk in a bowl until frothy
+spoon sausage over baked crust and sprinkle with cheese
+pour egg mixture slowly over sausage and cheese
+s&amp; p to taste
+bake 15-20 minutes or until eggs are set and crust is brown
+The mean rating for this recipe is: No reviews
+User reviews: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">death by chocolate  copycat dark chocolate sauce
+Recipe posted on: 2007-08-27
+Tags: 15-minutes-or-less, time-to-make, course, main-ingredient, cuisine, preparation, occasion, north-american, healthy, 5-ingredients-or-less, sauces, condiments-etc, american, easy, european, beginner-cook, chocolate, dietary, copycat, low-sodium, inexpensive, sweet-sauces, low-in-something, novelty
+Description: we were astonished to discover that we could make a dark chocolate sauce in minutes for pennies that matched what we'd received in a $4, 6-ounce gift jar.
+This recipe takes 5 minutes to be done.
+For this recipe you will need the ingredients: 
+cocoa
+sugar
+water
+The 4 steps to make this recipe are: 
+mix cocoa and sugar thoroughly
+stir in water in small amounts 
+until desired consistency is reached
+keep in tightly sealed container in refrigerator
+best served on second day 
+to make sure sugar completely dissolves
+The mean rating for this recipe is: No reviews
+User reviews: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chocolate  cherry pecan biscotti
+Recipe posted on: 2007-04-02
+Tags: time-to-make, course, main-ingredient, cuisine, preparation, for-large-groups, breads, fruit, easy, european, beginner-cook, italian, nuts, grains, pasta-rice-and-grains, number-of-servings, 4-hours-or-less
+Description: everybody i've ever made these for have loved them. i've made them with marshmellows before too... but that didn't really work out too well hehehe. in the picture the lighter biscottis don't have the cocoa powder in them and the darker ones do. (i like them without cocoa better but that's just me.)
+This recipe takes 76 minutes to be done.
+For this recipe you will need the ingredients: 
+flour
+sugar
+baking powder
+salt
+eggs
+rum extract
+almond extract
+pure vanilla extract
+maraschino cherry juice
+maraschino cherry
+pecans
+cocoa
+chocolate chips
+The 8 steps to make this recipe are: 
+combine all ingredients together
+make into a 1 / 2 inch thick loaf on a wax paper
+place wax paper on a cookie sheet
+bake for 45 minutes on 300f
+cut loaf into pieces
+bake 12 minutes on each flat side
+brush top of biscotti with extra almond flavoring
+serve
+The mean rating for this recipe is: No reviews
+User reviews: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ultimate  dark chocolate oreo truffle
+Recipe posted on: 2011-11-13
+Tags: weeknight, 30-minutes-or-less, time-to-make, course, main-ingredient, preparation, occasion, for-large-groups, 5-ingredients-or-less, desserts, easy, no-cook, dinner-party, finger-food, romantic, chocolate, inexpensive, taste-mood, sweet, number-of-servings, presentation, served-cold, technique
+Description: only 3 ingredients!  this is my all-time favorite dessert recipe, and ironically one of the easiest i've come across.  anyone can make it, yet the taste is something you'd expect from a professional chocolatier.
+This recipe takes 30 minutes to be done.
+For this recipe you will need the ingredients: 
+oreo cookies
+philadelphia cream cheese
+"bakers semi-sweet baking chocolate"
+The 10 steps to make this recipe are: 
+set out 1 pkg philadelphia cream cheese
+in a blender or food processor 
+blend 1 pks oreos until a fine powder is formed throughout
+"if you do it all at once 
+its impossible to get a consistent powder"
+remove any remaining cookie pieces
+knead 1 pkg philadelphia cream cheese into mix until mixture is consistent throughout
+roll into 2 in balls and place on cookie sheet
+refrigerate 30 minute
+"melt 1 bar bakers semi-sweet chocolate"
+using two spoons 
+coat each ball individually
+place on cookie sheet and refrigerate 30 minute
+The mean rating for this recipe is: No reviews
+User reviews: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 minute german chocolate pie
+Recipe posted on: 2008-02-22
+Tags: 30-minutes-or-less, time-to-make, course, preparation, low-protein, pies-and-tarts, desserts, easy, dietary, low-in-something
+Description: i don't remember where i found this recipe but i have had it for years.  i did not include 4 hours freezer time in preparation.
+This recipe takes 20 minutes to be done.
+For this recipe you will need the ingredients: 
+german sweet chocolate
+milk
+sugar
+cream cheese
+cool whip
+graham cracker crust
+The 6 steps to make this recipe are: 
+heat chocolate and 2 tablespoons of milk over low heat 
+stirring until chocolate is melted
+beat sugar into cream cheese
+add remaining milk and chocolate
+beat until smooth
+fold in cool whip
+put in crust and freeze for 4 hours
 The mean rating for this recipe is: No reviews
 User reviews: 
 </t>
@@ -8522,7 +8689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F216"/>
+  <dimension ref="A1:F221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8559,13 +8726,13 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F2" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8579,13 +8746,13 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F3" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -8599,13 +8766,13 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F4" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -8619,13 +8786,13 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F5" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8639,13 +8806,13 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F6" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8659,13 +8826,13 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8679,13 +8846,13 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>242</v>
       </c>
       <c r="F8" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -8699,13 +8866,13 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F9" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -8719,13 +8886,13 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F10" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8739,13 +8906,13 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="F11" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -8759,13 +8926,13 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="F12" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8779,13 +8946,13 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>240</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -8799,13 +8966,13 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="F14" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -8819,13 +8986,13 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F15" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -8839,13 +9006,13 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F16" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -8859,13 +9026,13 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F17" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -8879,13 +9046,13 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F18" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -8899,13 +9066,13 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F19" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -8919,13 +9086,13 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F20" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -8939,13 +9106,13 @@
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F21" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -8959,13 +9126,13 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E22" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F22" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -8979,13 +9146,13 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E23" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F23" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -8999,13 +9166,13 @@
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E24" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F24" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -9019,13 +9186,13 @@
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E25" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F25" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -9039,13 +9206,13 @@
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F26" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -9059,13 +9226,13 @@
         <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E27" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F27" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -9079,13 +9246,13 @@
         <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E28" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F28" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -9099,13 +9266,13 @@
         <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E29" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F29" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -9119,13 +9286,13 @@
         <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E30" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F30" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -9139,13 +9306,13 @@
         <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E31" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F31" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -9159,13 +9326,13 @@
         <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E32" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F32" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -9179,13 +9346,13 @@
         <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E33" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F33" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -9199,13 +9366,13 @@
         <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E34" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F34" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -9219,13 +9386,13 @@
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E35" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F35" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -9239,13 +9406,13 @@
         <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F36" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -9259,13 +9426,13 @@
         <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E37" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="F37" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -9279,13 +9446,13 @@
         <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E38" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F38" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -9299,13 +9466,13 @@
         <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E39" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="F39" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -9319,13 +9486,13 @@
         <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E40" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F40" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -9339,13 +9506,13 @@
         <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E41" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="F41" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -9359,13 +9526,13 @@
         <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E42" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F42" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -9379,13 +9546,13 @@
         <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E43" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F43" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -9399,13 +9566,13 @@
         <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E44" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="F44" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -9419,13 +9586,13 @@
         <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E45" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F45" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -9439,13 +9606,13 @@
         <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E46" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F46" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -9459,13 +9626,13 @@
         <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E47" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F47" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -9479,13 +9646,13 @@
         <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E48" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="F48" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -9499,13 +9666,13 @@
         <v>21</v>
       </c>
       <c r="D49" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E49" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F49" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -9519,13 +9686,13 @@
         <v>21</v>
       </c>
       <c r="D50" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E50" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F50" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -9539,13 +9706,13 @@
         <v>21</v>
       </c>
       <c r="D51" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E51" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F51" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -9559,13 +9726,13 @@
         <v>22</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E52" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="F52" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -9579,13 +9746,13 @@
         <v>22</v>
       </c>
       <c r="D53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E53" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F53" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -9599,13 +9766,13 @@
         <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E54" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F54" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -9619,13 +9786,13 @@
         <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E55" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="F55" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -9639,13 +9806,13 @@
         <v>22</v>
       </c>
       <c r="D56" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E56" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F56" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -9659,13 +9826,13 @@
         <v>23</v>
       </c>
       <c r="D57" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E57" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F57" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -9679,13 +9846,13 @@
         <v>23</v>
       </c>
       <c r="D58" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="E58" t="s">
-        <v>232</v>
+        <v>291</v>
       </c>
       <c r="F58" t="s">
-        <v>406</v>
+        <v>471</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -9699,13 +9866,13 @@
         <v>23</v>
       </c>
       <c r="D59" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E59" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="F59" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -9719,13 +9886,13 @@
         <v>23</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E60" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="F60" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -9739,13 +9906,13 @@
         <v>23</v>
       </c>
       <c r="D61" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E61" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F61" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -9759,13 +9926,13 @@
         <v>24</v>
       </c>
       <c r="D62" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E62" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="F62" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -9779,13 +9946,13 @@
         <v>24</v>
       </c>
       <c r="D63" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="E63" t="s">
-        <v>289</v>
+        <v>238</v>
       </c>
       <c r="F63" t="s">
-        <v>464</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -9799,13 +9966,13 @@
         <v>24</v>
       </c>
       <c r="D64" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E64" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F64" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -9819,13 +9986,13 @@
         <v>24</v>
       </c>
       <c r="D65" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E65" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F65" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -9839,13 +10006,13 @@
         <v>24</v>
       </c>
       <c r="D66" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E66" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="F66" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -9859,13 +10026,13 @@
         <v>25</v>
       </c>
       <c r="D67" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E67" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="F67" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -9879,13 +10046,13 @@
         <v>25</v>
       </c>
       <c r="D68" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E68" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="F68" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -9899,13 +10066,13 @@
         <v>25</v>
       </c>
       <c r="D69" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E69" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="F69" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -9919,13 +10086,13 @@
         <v>25</v>
       </c>
       <c r="D70" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E70" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="F70" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -9939,13 +10106,13 @@
         <v>25</v>
       </c>
       <c r="D71" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E71" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="F71" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -9959,13 +10126,13 @@
         <v>26</v>
       </c>
       <c r="D72" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E72" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F72" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -9979,13 +10146,13 @@
         <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="E73" t="s">
-        <v>248</v>
+        <v>304</v>
       </c>
       <c r="F73" t="s">
-        <v>423</v>
+        <v>484</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -9999,13 +10166,13 @@
         <v>26</v>
       </c>
       <c r="D74" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E74" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="F74" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -10019,13 +10186,13 @@
         <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E75" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="F75" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -10039,13 +10206,13 @@
         <v>26</v>
       </c>
       <c r="D76" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E76" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="F76" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -10059,13 +10226,13 @@
         <v>27</v>
       </c>
       <c r="D77" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E77" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="F77" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -10079,13 +10246,13 @@
         <v>27</v>
       </c>
       <c r="D78" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="E78" t="s">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="F78" t="s">
-        <v>477</v>
+        <v>439</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -10099,13 +10266,13 @@
         <v>27</v>
       </c>
       <c r="D79" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E79" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="F79" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -10119,13 +10286,13 @@
         <v>27</v>
       </c>
       <c r="D80" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E80" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="F80" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -10139,13 +10306,13 @@
         <v>27</v>
       </c>
       <c r="D81" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E81" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="F81" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -10159,13 +10326,13 @@
         <v>28</v>
       </c>
       <c r="D82" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E82" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="F82" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -10179,13 +10346,13 @@
         <v>28</v>
       </c>
       <c r="D83" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E83" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F83" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -10199,13 +10366,13 @@
         <v>28</v>
       </c>
       <c r="D84" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E84" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F84" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -10219,13 +10386,13 @@
         <v>28</v>
       </c>
       <c r="D85" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E85" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F85" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -10239,113 +10406,113 @@
         <v>28</v>
       </c>
       <c r="D86" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E86" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F86" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>29</v>
       </c>
       <c r="D87" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="E87" t="s">
-        <v>230</v>
+        <v>317</v>
       </c>
       <c r="F87" t="s">
-        <v>404</v>
+        <v>497</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>29</v>
       </c>
       <c r="D88" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E88" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="F88" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>29</v>
       </c>
       <c r="D89" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E89" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F89" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>29</v>
       </c>
       <c r="D90" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="E90" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="F90" t="s">
-        <v>460</v>
+        <v>500</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>29</v>
       </c>
       <c r="D91" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="E91" t="s">
-        <v>246</v>
+        <v>321</v>
       </c>
       <c r="F91" t="s">
-        <v>421</v>
+        <v>501</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -10359,13 +10526,13 @@
         <v>30</v>
       </c>
       <c r="D92" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="E92" t="s">
-        <v>285</v>
+        <v>236</v>
       </c>
       <c r="F92" t="s">
-        <v>460</v>
+        <v>415</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -10379,13 +10546,13 @@
         <v>30</v>
       </c>
       <c r="D93" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E93" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="F93" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -10399,13 +10566,13 @@
         <v>30</v>
       </c>
       <c r="D94" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="E94" t="s">
-        <v>234</v>
+        <v>323</v>
       </c>
       <c r="F94" t="s">
-        <v>408</v>
+        <v>503</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -10419,13 +10586,13 @@
         <v>30</v>
       </c>
       <c r="D95" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="E95" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="F95" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -10439,13 +10606,13 @@
         <v>30</v>
       </c>
       <c r="D96" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="E96" t="s">
-        <v>315</v>
+        <v>257</v>
       </c>
       <c r="F96" t="s">
-        <v>490</v>
+        <v>437</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -10459,13 +10626,13 @@
         <v>31</v>
       </c>
       <c r="D97" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="E97" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="F97" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -10479,13 +10646,13 @@
         <v>31</v>
       </c>
       <c r="D98" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E98" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="F98" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -10499,13 +10666,13 @@
         <v>31</v>
       </c>
       <c r="D99" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="E99" t="s">
-        <v>317</v>
+        <v>240</v>
       </c>
       <c r="F99" t="s">
-        <v>492</v>
+        <v>419</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -10519,13 +10686,13 @@
         <v>31</v>
       </c>
       <c r="D100" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E100" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="F100" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -10539,13 +10706,13 @@
         <v>31</v>
       </c>
       <c r="D101" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E101" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="F101" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -10559,13 +10726,13 @@
         <v>32</v>
       </c>
       <c r="D102" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E102" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F102" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -10579,13 +10746,13 @@
         <v>32</v>
       </c>
       <c r="D103" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E103" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F103" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -10599,13 +10766,13 @@
         <v>32</v>
       </c>
       <c r="D104" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E104" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="F104" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -10619,13 +10786,13 @@
         <v>32</v>
       </c>
       <c r="D105" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="E105" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="F105" t="s">
-        <v>481</v>
+        <v>509</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -10639,13 +10806,13 @@
         <v>32</v>
       </c>
       <c r="D106" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E106" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="F106" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -10659,13 +10826,13 @@
         <v>33</v>
       </c>
       <c r="D107" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E107" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="F107" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -10679,13 +10846,13 @@
         <v>33</v>
       </c>
       <c r="D108" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E108" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="F108" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -10699,13 +10866,13 @@
         <v>33</v>
       </c>
       <c r="D109" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="E109" t="s">
-        <v>274</v>
+        <v>333</v>
       </c>
       <c r="F109" t="s">
-        <v>449</v>
+        <v>513</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -10719,13 +10886,13 @@
         <v>33</v>
       </c>
       <c r="D110" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E110" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="F110" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -10739,13 +10906,13 @@
         <v>33</v>
       </c>
       <c r="D111" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E111" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="F111" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -10753,19 +10920,19 @@
         <v>7</v>
       </c>
       <c r="B112" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
         <v>34</v>
       </c>
       <c r="D112" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="E112" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="F112" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -10773,19 +10940,19 @@
         <v>7</v>
       </c>
       <c r="B113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
         <v>34</v>
       </c>
       <c r="D113" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E113" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="F113" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -10793,19 +10960,19 @@
         <v>7</v>
       </c>
       <c r="B114" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
         <v>34</v>
       </c>
       <c r="D114" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="E114" t="s">
-        <v>329</v>
+        <v>285</v>
       </c>
       <c r="F114" t="s">
-        <v>504</v>
+        <v>465</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -10813,19 +10980,19 @@
         <v>7</v>
       </c>
       <c r="B115" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
         <v>34</v>
       </c>
       <c r="D115" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E115" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="F115" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -10833,19 +11000,19 @@
         <v>7</v>
       </c>
       <c r="B116" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
         <v>34</v>
       </c>
       <c r="D116" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E116" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="F116" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -10859,10 +11026,10 @@
         <v>35</v>
       </c>
       <c r="D117" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E117" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F117" t="s">
         <v>507</v>
@@ -10879,13 +11046,13 @@
         <v>35</v>
       </c>
       <c r="D118" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E118" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="F118" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -10899,13 +11066,13 @@
         <v>35</v>
       </c>
       <c r="D119" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E119" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F119" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -10919,13 +11086,13 @@
         <v>35</v>
       </c>
       <c r="D120" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E120" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F120" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -10939,13 +11106,13 @@
         <v>35</v>
       </c>
       <c r="D121" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E121" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F121" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -10953,19 +11120,19 @@
         <v>7</v>
       </c>
       <c r="B122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C122" t="s">
         <v>36</v>
       </c>
       <c r="D122" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E122" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="F122" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -10973,19 +11140,19 @@
         <v>7</v>
       </c>
       <c r="B123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C123" t="s">
         <v>36</v>
       </c>
       <c r="D123" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E123" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="F123" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -10993,19 +11160,19 @@
         <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C124" t="s">
         <v>36</v>
       </c>
       <c r="D124" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E124" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F124" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -11013,19 +11180,19 @@
         <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C125" t="s">
         <v>36</v>
       </c>
       <c r="D125" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E125" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="F125" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -11033,19 +11200,19 @@
         <v>7</v>
       </c>
       <c r="B126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C126" t="s">
         <v>36</v>
       </c>
       <c r="D126" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E126" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="F126" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -11053,19 +11220,19 @@
         <v>7</v>
       </c>
       <c r="B127" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
         <v>37</v>
       </c>
       <c r="D127" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E127" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="F127" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -11073,19 +11240,19 @@
         <v>7</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
         <v>37</v>
       </c>
       <c r="D128" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E128" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F128" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -11093,19 +11260,19 @@
         <v>7</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
         <v>37</v>
       </c>
       <c r="D129" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E129" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="F129" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -11113,19 +11280,19 @@
         <v>7</v>
       </c>
       <c r="B130" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
         <v>37</v>
       </c>
       <c r="D130" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="E130" t="s">
-        <v>305</v>
+        <v>351</v>
       </c>
       <c r="F130" t="s">
-        <v>480</v>
+        <v>531</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -11133,19 +11300,19 @@
         <v>7</v>
       </c>
       <c r="B131" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
         <v>37</v>
       </c>
       <c r="D131" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E131" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="F131" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -11153,19 +11320,19 @@
         <v>7</v>
       </c>
       <c r="B132" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C132" t="s">
         <v>38</v>
       </c>
       <c r="D132" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E132" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="F132" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -11173,19 +11340,19 @@
         <v>7</v>
       </c>
       <c r="B133" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C133" t="s">
         <v>38</v>
       </c>
       <c r="D133" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E133" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="F133" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -11193,19 +11360,19 @@
         <v>7</v>
       </c>
       <c r="B134" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C134" t="s">
         <v>38</v>
       </c>
       <c r="D134" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E134" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="F134" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -11213,19 +11380,19 @@
         <v>7</v>
       </c>
       <c r="B135" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C135" t="s">
         <v>38</v>
       </c>
       <c r="D135" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="E135" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="F135" t="s">
-        <v>524</v>
+        <v>496</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -11233,19 +11400,19 @@
         <v>7</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C136" t="s">
         <v>38</v>
       </c>
       <c r="D136" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E136" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="F136" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -11253,19 +11420,19 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C137" t="s">
         <v>39</v>
       </c>
       <c r="D137" t="s">
-        <v>100</v>
+        <v>178</v>
       </c>
       <c r="E137" t="s">
-        <v>274</v>
+        <v>357</v>
       </c>
       <c r="F137" t="s">
-        <v>449</v>
+        <v>537</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -11273,19 +11440,19 @@
         <v>7</v>
       </c>
       <c r="B138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C138" t="s">
         <v>39</v>
       </c>
       <c r="D138" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E138" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="F138" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -11293,19 +11460,19 @@
         <v>7</v>
       </c>
       <c r="B139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C139" t="s">
         <v>39</v>
       </c>
       <c r="D139" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E139" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="F139" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -11313,19 +11480,19 @@
         <v>7</v>
       </c>
       <c r="B140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C140" t="s">
         <v>39</v>
       </c>
       <c r="D140" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E140" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="F140" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -11333,19 +11500,19 @@
         <v>7</v>
       </c>
       <c r="B141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C141" t="s">
         <v>39</v>
       </c>
       <c r="D141" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E141" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F141" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -11353,19 +11520,19 @@
         <v>7</v>
       </c>
       <c r="B142" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C142" t="s">
         <v>40</v>
       </c>
       <c r="D142" t="s">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="E142" t="s">
-        <v>355</v>
+        <v>285</v>
       </c>
       <c r="F142" t="s">
-        <v>530</v>
+        <v>465</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -11373,19 +11540,19 @@
         <v>7</v>
       </c>
       <c r="B143" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C143" t="s">
         <v>40</v>
       </c>
       <c r="D143" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E143" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="F143" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -11393,19 +11560,19 @@
         <v>7</v>
       </c>
       <c r="B144" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C144" t="s">
         <v>40</v>
       </c>
       <c r="D144" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="E144" t="s">
-        <v>315</v>
+        <v>363</v>
       </c>
       <c r="F144" t="s">
-        <v>490</v>
+        <v>543</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -11413,19 +11580,19 @@
         <v>7</v>
       </c>
       <c r="B145" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C145" t="s">
         <v>40</v>
       </c>
       <c r="D145" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E145" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="F145" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -11433,19 +11600,19 @@
         <v>7</v>
       </c>
       <c r="B146" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C146" t="s">
         <v>40</v>
       </c>
       <c r="D146" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E146" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="F146" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -11453,19 +11620,19 @@
         <v>7</v>
       </c>
       <c r="B147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C147" t="s">
         <v>41</v>
       </c>
       <c r="D147" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E147" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="F147" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -11473,19 +11640,19 @@
         <v>7</v>
       </c>
       <c r="B148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C148" t="s">
         <v>41</v>
       </c>
       <c r="D148" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E148" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="F148" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -11493,19 +11660,19 @@
         <v>7</v>
       </c>
       <c r="B149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C149" t="s">
         <v>41</v>
       </c>
       <c r="D149" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="E149" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="F149" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -11513,19 +11680,19 @@
         <v>7</v>
       </c>
       <c r="B150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C150" t="s">
         <v>41</v>
       </c>
       <c r="D150" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E150" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="F150" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -11533,19 +11700,19 @@
         <v>7</v>
       </c>
       <c r="B151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C151" t="s">
         <v>41</v>
       </c>
       <c r="D151" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E151" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F151" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -11553,19 +11720,19 @@
         <v>7</v>
       </c>
       <c r="B152" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C152" t="s">
         <v>42</v>
       </c>
       <c r="D152" t="s">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="E152" t="s">
-        <v>285</v>
+        <v>370</v>
       </c>
       <c r="F152" t="s">
-        <v>460</v>
+        <v>550</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -11573,19 +11740,19 @@
         <v>7</v>
       </c>
       <c r="B153" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C153" t="s">
         <v>42</v>
       </c>
       <c r="D153" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E153" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="F153" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -11593,19 +11760,19 @@
         <v>7</v>
       </c>
       <c r="B154" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C154" t="s">
         <v>42</v>
       </c>
       <c r="D154" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E154" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="F154" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -11613,19 +11780,19 @@
         <v>7</v>
       </c>
       <c r="B155" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C155" t="s">
         <v>42</v>
       </c>
       <c r="D155" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E155" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="F155" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -11633,19 +11800,19 @@
         <v>7</v>
       </c>
       <c r="B156" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C156" t="s">
         <v>42</v>
       </c>
       <c r="D156" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E156" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="F156" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -11659,13 +11826,13 @@
         <v>43</v>
       </c>
       <c r="D157" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="E157" t="s">
-        <v>368</v>
+        <v>296</v>
       </c>
       <c r="F157" t="s">
-        <v>543</v>
+        <v>476</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -11679,13 +11846,13 @@
         <v>43</v>
       </c>
       <c r="D158" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E158" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F158" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -11699,13 +11866,13 @@
         <v>43</v>
       </c>
       <c r="D159" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E159" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="F159" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -11719,13 +11886,13 @@
         <v>43</v>
       </c>
       <c r="D160" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E160" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F160" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -11739,13 +11906,13 @@
         <v>43</v>
       </c>
       <c r="D161" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E161" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="F161" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -11759,13 +11926,13 @@
         <v>44</v>
       </c>
       <c r="D162" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E162" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="F162" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -11779,13 +11946,13 @@
         <v>44</v>
       </c>
       <c r="D163" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E163" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="F163" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -11799,13 +11966,13 @@
         <v>44</v>
       </c>
       <c r="D164" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E164" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="F164" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -11819,13 +11986,13 @@
         <v>44</v>
       </c>
       <c r="D165" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E165" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="F165" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -11839,13 +12006,13 @@
         <v>44</v>
       </c>
       <c r="D166" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E166" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F166" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -11853,19 +12020,19 @@
         <v>7</v>
       </c>
       <c r="B167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C167" t="s">
         <v>45</v>
       </c>
       <c r="D167" t="s">
-        <v>55</v>
+        <v>205</v>
       </c>
       <c r="E167" t="s">
-        <v>230</v>
+        <v>384</v>
       </c>
       <c r="F167" t="s">
-        <v>404</v>
+        <v>564</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -11873,19 +12040,19 @@
         <v>7</v>
       </c>
       <c r="B168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C168" t="s">
         <v>45</v>
       </c>
       <c r="D168" t="s">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c r="E168" t="s">
-        <v>311</v>
+        <v>385</v>
       </c>
       <c r="F168" t="s">
-        <v>486</v>
+        <v>565</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -11893,19 +12060,19 @@
         <v>7</v>
       </c>
       <c r="B169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C169" t="s">
         <v>45</v>
       </c>
       <c r="D169" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="E169" t="s">
-        <v>325</v>
+        <v>386</v>
       </c>
       <c r="F169" t="s">
-        <v>500</v>
+        <v>566</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -11913,19 +12080,19 @@
         <v>7</v>
       </c>
       <c r="B170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C170" t="s">
         <v>45</v>
       </c>
       <c r="D170" t="s">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="E170" t="s">
-        <v>274</v>
+        <v>387</v>
       </c>
       <c r="F170" t="s">
-        <v>449</v>
+        <v>567</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -11933,19 +12100,19 @@
         <v>7</v>
       </c>
       <c r="B171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C171" t="s">
         <v>45</v>
       </c>
       <c r="D171" t="s">
-        <v>111</v>
+        <v>209</v>
       </c>
       <c r="E171" t="s">
-        <v>285</v>
+        <v>388</v>
       </c>
       <c r="F171" t="s">
-        <v>460</v>
+        <v>568</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -11953,19 +12120,19 @@
         <v>7</v>
       </c>
       <c r="B172" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C172" t="s">
         <v>46</v>
       </c>
       <c r="D172" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="E172" t="s">
-        <v>313</v>
+        <v>236</v>
       </c>
       <c r="F172" t="s">
-        <v>488</v>
+        <v>415</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -11973,19 +12140,19 @@
         <v>7</v>
       </c>
       <c r="B173" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C173" t="s">
         <v>46</v>
       </c>
       <c r="D173" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="E173" t="s">
-        <v>234</v>
+        <v>322</v>
       </c>
       <c r="F173" t="s">
-        <v>408</v>
+        <v>502</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -11993,19 +12160,19 @@
         <v>7</v>
       </c>
       <c r="B174" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C174" t="s">
         <v>46</v>
       </c>
       <c r="D174" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="E174" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="F174" t="s">
-        <v>489</v>
+        <v>516</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -12013,19 +12180,19 @@
         <v>7</v>
       </c>
       <c r="B175" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C175" t="s">
         <v>46</v>
       </c>
       <c r="D175" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="E175" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="F175" t="s">
-        <v>426</v>
+        <v>465</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -12033,19 +12200,19 @@
         <v>7</v>
       </c>
       <c r="B176" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C176" t="s">
         <v>46</v>
       </c>
       <c r="D176" t="s">
-        <v>204</v>
+        <v>117</v>
       </c>
       <c r="E176" t="s">
-        <v>378</v>
+        <v>296</v>
       </c>
       <c r="F176" t="s">
-        <v>553</v>
+        <v>476</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -12059,13 +12226,13 @@
         <v>47</v>
       </c>
       <c r="D177" t="s">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="E177" t="s">
-        <v>379</v>
+        <v>324</v>
       </c>
       <c r="F177" t="s">
-        <v>554</v>
+        <v>504</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -12079,13 +12246,13 @@
         <v>47</v>
       </c>
       <c r="D178" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="E178" t="s">
-        <v>313</v>
+        <v>240</v>
       </c>
       <c r="F178" t="s">
-        <v>488</v>
+        <v>419</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -12099,13 +12266,13 @@
         <v>47</v>
       </c>
       <c r="D179" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="E179" t="s">
-        <v>234</v>
+        <v>325</v>
       </c>
       <c r="F179" t="s">
-        <v>408</v>
+        <v>505</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -12119,13 +12286,13 @@
         <v>47</v>
       </c>
       <c r="D180" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E180" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="F180" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -12139,13 +12306,13 @@
         <v>47</v>
       </c>
       <c r="D181" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E181" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="F181" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -12159,13 +12326,13 @@
         <v>48</v>
       </c>
       <c r="D182" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E182" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="F182" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -12179,13 +12346,13 @@
         <v>48</v>
       </c>
       <c r="D183" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="E183" t="s">
-        <v>253</v>
+        <v>324</v>
       </c>
       <c r="F183" t="s">
-        <v>428</v>
+        <v>504</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -12199,13 +12366,13 @@
         <v>48</v>
       </c>
       <c r="D184" t="s">
-        <v>208</v>
+        <v>60</v>
       </c>
       <c r="E184" t="s">
-        <v>382</v>
+        <v>240</v>
       </c>
       <c r="F184" t="s">
-        <v>557</v>
+        <v>419</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -12219,13 +12386,13 @@
         <v>48</v>
       </c>
       <c r="D185" t="s">
-        <v>209</v>
+        <v>83</v>
       </c>
       <c r="E185" t="s">
-        <v>383</v>
+        <v>262</v>
       </c>
       <c r="F185" t="s">
-        <v>558</v>
+        <v>442</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -12239,13 +12406,13 @@
         <v>48</v>
       </c>
       <c r="D186" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E186" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="F186" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -12259,13 +12426,13 @@
         <v>49</v>
       </c>
       <c r="D187" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E187" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="F187" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -12279,13 +12446,13 @@
         <v>49</v>
       </c>
       <c r="D188" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E188" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="F188" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -12299,13 +12466,13 @@
         <v>49</v>
       </c>
       <c r="D189" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E189" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="F189" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -12319,13 +12486,13 @@
         <v>49</v>
       </c>
       <c r="D190" t="s">
-        <v>123</v>
+        <v>215</v>
       </c>
       <c r="E190" t="s">
-        <v>297</v>
+        <v>394</v>
       </c>
       <c r="F190" t="s">
-        <v>472</v>
+        <v>574</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -12339,13 +12506,13 @@
         <v>49</v>
       </c>
       <c r="D191" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E191" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="F191" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -12359,13 +12526,13 @@
         <v>50</v>
       </c>
       <c r="D192" t="s">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="E192" t="s">
-        <v>284</v>
+        <v>396</v>
       </c>
       <c r="F192" t="s">
-        <v>459</v>
+        <v>576</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -12379,13 +12546,13 @@
         <v>50</v>
       </c>
       <c r="D193" t="s">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="E193" t="s">
-        <v>388</v>
+        <v>256</v>
       </c>
       <c r="F193" t="s">
-        <v>563</v>
+        <v>436</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -12399,13 +12566,13 @@
         <v>50</v>
       </c>
       <c r="D194" t="s">
-        <v>57</v>
+        <v>218</v>
       </c>
       <c r="E194" t="s">
-        <v>232</v>
+        <v>397</v>
       </c>
       <c r="F194" t="s">
-        <v>406</v>
+        <v>577</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -12419,13 +12586,13 @@
         <v>50</v>
       </c>
       <c r="D195" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="E195" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="F195" t="s">
-        <v>460</v>
+        <v>488</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -12439,13 +12606,13 @@
         <v>50</v>
       </c>
       <c r="D196" t="s">
-        <v>112</v>
+        <v>219</v>
       </c>
       <c r="E196" t="s">
-        <v>286</v>
+        <v>398</v>
       </c>
       <c r="F196" t="s">
-        <v>461</v>
+        <v>578</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -12459,13 +12626,13 @@
         <v>51</v>
       </c>
       <c r="D197" t="s">
-        <v>215</v>
+        <v>116</v>
       </c>
       <c r="E197" t="s">
-        <v>389</v>
+        <v>295</v>
       </c>
       <c r="F197" t="s">
-        <v>564</v>
+        <v>475</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -12479,13 +12646,13 @@
         <v>51</v>
       </c>
       <c r="D198" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E198" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="F198" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -12499,13 +12666,13 @@
         <v>51</v>
       </c>
       <c r="D199" t="s">
-        <v>217</v>
+        <v>58</v>
       </c>
       <c r="E199" t="s">
-        <v>391</v>
+        <v>238</v>
       </c>
       <c r="F199" t="s">
-        <v>566</v>
+        <v>417</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -12519,13 +12686,13 @@
         <v>51</v>
       </c>
       <c r="D200" t="s">
-        <v>218</v>
+        <v>117</v>
       </c>
       <c r="E200" t="s">
-        <v>392</v>
+        <v>296</v>
       </c>
       <c r="F200" t="s">
-        <v>567</v>
+        <v>476</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -12539,13 +12706,13 @@
         <v>51</v>
       </c>
       <c r="D201" t="s">
-        <v>219</v>
+        <v>118</v>
       </c>
       <c r="E201" t="s">
-        <v>393</v>
+        <v>297</v>
       </c>
       <c r="F201" t="s">
-        <v>568</v>
+        <v>477</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -12553,19 +12720,19 @@
         <v>7</v>
       </c>
       <c r="B202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C202" t="s">
         <v>52</v>
       </c>
       <c r="D202" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E202" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="F202" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -12573,19 +12740,19 @@
         <v>7</v>
       </c>
       <c r="B203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C203" t="s">
         <v>52</v>
       </c>
       <c r="D203" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E203" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="F203" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -12593,19 +12760,19 @@
         <v>7</v>
       </c>
       <c r="B204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C204" t="s">
         <v>52</v>
       </c>
       <c r="D204" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E204" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F204" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -12613,19 +12780,19 @@
         <v>7</v>
       </c>
       <c r="B205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C205" t="s">
         <v>52</v>
       </c>
       <c r="D205" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E205" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="F205" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -12633,19 +12800,19 @@
         <v>7</v>
       </c>
       <c r="B206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C206" t="s">
         <v>52</v>
       </c>
       <c r="D206" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E206" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="F206" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -12653,19 +12820,19 @@
         <v>7</v>
       </c>
       <c r="B207" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C207" t="s">
         <v>53</v>
       </c>
       <c r="D207" t="s">
-        <v>55</v>
+        <v>226</v>
       </c>
       <c r="E207" t="s">
-        <v>230</v>
+        <v>405</v>
       </c>
       <c r="F207" t="s">
-        <v>404</v>
+        <v>585</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -12673,19 +12840,19 @@
         <v>7</v>
       </c>
       <c r="B208" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C208" t="s">
         <v>53</v>
       </c>
       <c r="D208" t="s">
-        <v>137</v>
+        <v>227</v>
       </c>
       <c r="E208" t="s">
-        <v>311</v>
+        <v>406</v>
       </c>
       <c r="F208" t="s">
-        <v>486</v>
+        <v>586</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -12693,19 +12860,19 @@
         <v>7</v>
       </c>
       <c r="B209" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C209" t="s">
         <v>53</v>
       </c>
       <c r="D209" t="s">
-        <v>151</v>
+        <v>228</v>
       </c>
       <c r="E209" t="s">
-        <v>325</v>
+        <v>407</v>
       </c>
       <c r="F209" t="s">
-        <v>500</v>
+        <v>587</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -12713,19 +12880,19 @@
         <v>7</v>
       </c>
       <c r="B210" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C210" t="s">
         <v>53</v>
       </c>
       <c r="D210" t="s">
-        <v>100</v>
+        <v>229</v>
       </c>
       <c r="E210" t="s">
-        <v>274</v>
+        <v>408</v>
       </c>
       <c r="F210" t="s">
-        <v>449</v>
+        <v>588</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -12733,19 +12900,19 @@
         <v>7</v>
       </c>
       <c r="B211" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C211" t="s">
         <v>53</v>
       </c>
       <c r="D211" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="E211" t="s">
-        <v>338</v>
+        <v>409</v>
       </c>
       <c r="F211" t="s">
-        <v>513</v>
+        <v>589</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -12753,19 +12920,19 @@
         <v>7</v>
       </c>
       <c r="B212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C212" t="s">
         <v>54</v>
       </c>
       <c r="D212" t="s">
-        <v>225</v>
+        <v>56</v>
       </c>
       <c r="E212" t="s">
-        <v>399</v>
+        <v>236</v>
       </c>
       <c r="F212" t="s">
-        <v>574</v>
+        <v>415</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -12773,19 +12940,19 @@
         <v>7</v>
       </c>
       <c r="B213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C213" t="s">
         <v>54</v>
       </c>
       <c r="D213" t="s">
-        <v>226</v>
+        <v>143</v>
       </c>
       <c r="E213" t="s">
-        <v>400</v>
+        <v>322</v>
       </c>
       <c r="F213" t="s">
-        <v>575</v>
+        <v>502</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -12793,19 +12960,19 @@
         <v>7</v>
       </c>
       <c r="B214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C214" t="s">
         <v>54</v>
       </c>
       <c r="D214" t="s">
-        <v>227</v>
+        <v>157</v>
       </c>
       <c r="E214" t="s">
-        <v>401</v>
+        <v>336</v>
       </c>
       <c r="F214" t="s">
-        <v>576</v>
+        <v>516</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -12813,19 +12980,19 @@
         <v>7</v>
       </c>
       <c r="B215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C215" t="s">
         <v>54</v>
       </c>
       <c r="D215" t="s">
-        <v>228</v>
+        <v>106</v>
       </c>
       <c r="E215" t="s">
-        <v>402</v>
+        <v>285</v>
       </c>
       <c r="F215" t="s">
-        <v>577</v>
+        <v>465</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -12833,19 +13000,119 @@
         <v>7</v>
       </c>
       <c r="B216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C216" t="s">
         <v>54</v>
       </c>
       <c r="D216" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="E216" t="s">
-        <v>403</v>
+        <v>349</v>
       </c>
       <c r="F216" t="s">
-        <v>578</v>
+        <v>529</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" t="s">
+        <v>7</v>
+      </c>
+      <c r="B217" t="s">
+        <v>10</v>
+      </c>
+      <c r="C217" t="s">
+        <v>55</v>
+      </c>
+      <c r="D217" t="s">
+        <v>231</v>
+      </c>
+      <c r="E217" t="s">
+        <v>410</v>
+      </c>
+      <c r="F217" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" t="s">
+        <v>7</v>
+      </c>
+      <c r="B218" t="s">
+        <v>10</v>
+      </c>
+      <c r="C218" t="s">
+        <v>55</v>
+      </c>
+      <c r="D218" t="s">
+        <v>232</v>
+      </c>
+      <c r="E218" t="s">
+        <v>411</v>
+      </c>
+      <c r="F218" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" t="s">
+        <v>7</v>
+      </c>
+      <c r="B219" t="s">
+        <v>10</v>
+      </c>
+      <c r="C219" t="s">
+        <v>55</v>
+      </c>
+      <c r="D219" t="s">
+        <v>233</v>
+      </c>
+      <c r="E219" t="s">
+        <v>412</v>
+      </c>
+      <c r="F219" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" t="s">
+        <v>7</v>
+      </c>
+      <c r="B220" t="s">
+        <v>10</v>
+      </c>
+      <c r="C220" t="s">
+        <v>55</v>
+      </c>
+      <c r="D220" t="s">
+        <v>234</v>
+      </c>
+      <c r="E220" t="s">
+        <v>413</v>
+      </c>
+      <c r="F220" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" t="s">
+        <v>7</v>
+      </c>
+      <c r="B221" t="s">
+        <v>10</v>
+      </c>
+      <c r="C221" t="s">
+        <v>55</v>
+      </c>
+      <c r="D221" t="s">
+        <v>235</v>
+      </c>
+      <c r="E221" t="s">
+        <v>414</v>
+      </c>
+      <c r="F221" t="s">
+        <v>594</v>
       </c>
     </row>
   </sheetData>
